--- a/static/input_files/acfrs/Clayton_statement_of_net_position.xlsx
+++ b/static/input_files/acfrs/Clayton_statement_of_net_position.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/static/input_files/acfrs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE9BE03-8D0C-8440-83F2-5FA23892F677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C595A0A-074C-C142-9107-C54D536F66B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33440" yWindow="-6820" windowWidth="28800" windowHeight="15720" tabRatio="834" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="1086">
   <si>
     <t>XBRL Element</t>
   </si>
@@ -9789,7 +9789,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -9913,12 +9913,12 @@
       <c r="C10" s="38">
         <v>1133315</v>
       </c>
-      <c r="D10" s="39">
-        <v>23</v>
+      <c r="D10" s="39" t="s">
+        <v>1085</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" ref="E10:E21" si="0">SUM(C10:D10)</f>
-        <v>1133338</v>
+        <v>1133315</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="D14" s="19" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>-120870</v>
+        <v>-120893</v>
       </c>
       <c r="E14" s="19">
         <f ca="1">SUM(C14:D14)</f>
-        <v>14652852</v>
+        <v>14652829</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15">
@@ -10116,11 +10116,11 @@
       </c>
       <c r="D21" s="23">
         <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,D:D),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,D:D)))</f>
-        <v>888333</v>
+        <v>888310</v>
       </c>
       <c r="E21" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>51260263</v>
+        <v>51260240</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15">
